--- a/GAR Data.xlsx
+++ b/GAR Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE2740-C838-41CD-8679-C8F1307C9F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E60B64-6306-4F85-9156-07A0BEA43E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4028,13 +4028,13 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4075,9 +4075,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A4A9D8C-FC60-4D02-9E99-8EE0FDF82A50}" uniqueName="1" name="Player" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{897C8DC1-4BDB-4D1B-AAB3-918839633BD6}" uniqueName="2" name="Team" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4BB8ABE5-1E0F-4D7E-88DF-30BFD5D89046}" uniqueName="3" name="Date of Injury" queryTableFieldId="3" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{0C7FF7BF-823F-4FE7-97D2-BF8016DEAAF6}" uniqueName="4" name="Injury Type" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{420C93FD-A50A-4895-BEDB-0394DCEF590F}" uniqueName="5" name="Injury Note" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4BB8ABE5-1E0F-4D7E-88DF-30BFD5D89046}" uniqueName="3" name="Date of Injury" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0C7FF7BF-823F-4FE7-97D2-BF8016DEAAF6}" uniqueName="4" name="Injury Type" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{420C93FD-A50A-4895-BEDB-0394DCEF590F}" uniqueName="5" name="Injury Note" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4383,7 +4383,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GAR Data.xlsx
+++ b/GAR Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0F34F8-24EB-47F8-897C-3423DC4F6A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5CF3C5-63EF-4B58-BB09-A98A1C93D6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -4013,13 +4013,13 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4060,9 +4060,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A4A9D8C-FC60-4D02-9E99-8EE0FDF82A50}" uniqueName="1" name="Player" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{897C8DC1-4BDB-4D1B-AAB3-918839633BD6}" uniqueName="2" name="Team" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4BB8ABE5-1E0F-4D7E-88DF-30BFD5D89046}" uniqueName="3" name="Date of Injury" queryTableFieldId="3" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{0C7FF7BF-823F-4FE7-97D2-BF8016DEAAF6}" uniqueName="4" name="Injury Type" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{420C93FD-A50A-4895-BEDB-0394DCEF590F}" uniqueName="5" name="Injury Note" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4BB8ABE5-1E0F-4D7E-88DF-30BFD5D89046}" uniqueName="3" name="Date of Injury" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0C7FF7BF-823F-4FE7-97D2-BF8016DEAAF6}" uniqueName="4" name="Injury Type" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{420C93FD-A50A-4895-BEDB-0394DCEF590F}" uniqueName="5" name="Injury Note" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4367,8 +4367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5228,8 +5228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V770"/>
   <sheetViews>
-    <sheetView topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="H595" sqref="H595"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46832,8 +46832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F87" sqref="F86:F87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51564,7 +51564,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
